--- a/spreadsheets/Yuumi.xlsx
+++ b/spreadsheets/Yuumi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788E9831-2D59-4327-80C2-C76FA9C792A9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEE907F-0B7D-4570-B76B-EF4DABD46713}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3060" yWindow="1320" windowWidth="21525" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
   <si>
     <t>Champion</t>
   </si>
@@ -97,18 +97,12 @@
     <t>discord</t>
   </si>
   <si>
-    <t>Larmack#1271</t>
-  </si>
-  <si>
     <t>If you aren't sure for portrait, just send me the picture you want on discord (usephysics#0001)</t>
   </si>
   <si>
     <t>portrait</t>
   </si>
   <si>
-    <t>https://pbs.twimg.com/profile_images/1213266496903712768/brT35J7j_400x400.jpg</t>
-  </si>
-  <si>
     <t>Portrait can be anything you want, it doesn't have to be an irl picture.</t>
   </si>
   <si>
@@ -299,13 +293,16 @@
   </si>
   <si>
     <t>Dangerous matchup. Trade in front of your minions to make it difficult for him to land his e, as if you get hit by it you will die.</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Jdoaj3S.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,6 +329,12 @@
       <sz val="11"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -350,18 +353,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -718,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -806,52 +812,50 @@
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1838,7 +1842,7 @@
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B9" r:id="rId3" xr:uid="{B6D3B3E5-0A20-42A5-ADC8-52F1FCF35C9C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -1850,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1881,13 +1885,13 @@
         <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="T2" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
@@ -1897,19 +1901,19 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" s="3">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="T3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
@@ -1919,19 +1923,19 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3">
         <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="T4" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
@@ -1941,19 +1945,19 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B5" s="5">
         <v>5</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="T5" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
@@ -1963,19 +1967,19 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B6" s="3">
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="T6" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
@@ -1985,19 +1989,19 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B7" s="5">
         <v>9</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="T7" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
@@ -2007,19 +2011,19 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="T8" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
@@ -2029,13 +2033,13 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B9" s="5">
         <v>3</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -2049,19 +2053,19 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B10" s="3">
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="T10" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
@@ -2071,19 +2075,19 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B11" s="5">
         <v>2</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="T11" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
@@ -2093,156 +2097,156 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B12" s="3">
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B13" s="3">
         <v>5</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B14" s="5">
         <v>3</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B15" s="3">
         <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B16" s="3">
         <v>7</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B17" s="3">
         <v>6</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B18" s="5">
         <v>6</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B19" s="5">
         <v>2</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B20" s="3">
         <v>6</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B21" s="3">
         <v>10</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B22" s="5">
         <v>4</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B23" s="3">
         <v>3</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B24" s="5">
         <v>4</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B25" s="3">
         <v>7</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
